--- a/dataset/day_6.xlsx
+++ b/dataset/day_6.xlsx
@@ -3603,7 +3603,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;Lab.Window.on); G((Lab.AirQuality.low &amp; Lab.HumanState.detected) -&gt; (F[0, 10*60] Lab.air_quality_up))</t>
+          <t>#3; #7</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -12227,7 +12227,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on); G!(Context.Weather.raining&amp;Lab.Window.on)</t>
+          <t>#3; #3</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
